--- a/Copenhagen_introsim/data/Copenhagen_clean_inj10.xlsx
+++ b/Copenhagen_introsim/data/Copenhagen_clean_inj10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -167,34 +167,10 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
     <t xml:space="preserve">female</t>
   </si>
   <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
     <t xml:space="preserve">teacher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-18</t>
   </si>
 </sst>
 </file>
@@ -799,8 +775,8 @@
       <c r="AQ2" t="b">
         <v>1</v>
       </c>
-      <c r="AR2" t="s">
-        <v>51</v>
+      <c r="AR2" t="n">
+        <v>15</v>
       </c>
       <c r="AS2" t="b">
         <v>1</v>
@@ -811,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>18</v>
@@ -924,7 +900,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>17</v>
@@ -1023,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>18</v>
@@ -1148,8 +1124,8 @@
       <c r="AQ5" t="b">
         <v>1</v>
       </c>
-      <c r="AR5" t="s">
-        <v>53</v>
+      <c r="AR5" t="n">
+        <v>21</v>
       </c>
       <c r="AS5" t="b">
         <v>1</v>
@@ -1285,8 +1261,8 @@
       <c r="AQ6" t="b">
         <v>1</v>
       </c>
-      <c r="AR6" t="s">
-        <v>54</v>
+      <c r="AR6" t="n">
+        <v>45</v>
       </c>
       <c r="AS6" t="b">
         <v>1</v>
@@ -1303,7 +1279,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -1404,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>15</v>
@@ -1533,13 +1509,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="b">
@@ -1632,8 +1608,8 @@
       <c r="AQ9" t="b">
         <v>1</v>
       </c>
-      <c r="AR9" t="s">
-        <v>56</v>
+      <c r="AR9" t="n">
+        <v>33</v>
       </c>
       <c r="AS9" t="b">
         <v>1</v>
@@ -1991,8 +1967,8 @@
       <c r="AQ12" t="b">
         <v>1</v>
       </c>
-      <c r="AR12" t="s">
-        <v>57</v>
+      <c r="AR12" t="n">
+        <v>27</v>
       </c>
       <c r="AS12" t="b">
         <v>1</v>
@@ -2126,8 +2102,8 @@
       <c r="AQ13" t="b">
         <v>1</v>
       </c>
-      <c r="AR13" t="s">
-        <v>51</v>
+      <c r="AR13" t="n">
+        <v>15</v>
       </c>
       <c r="AS13" t="b">
         <v>1</v>
@@ -2144,7 +2120,7 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="b">
@@ -2237,8 +2213,8 @@
       <c r="AQ14" t="b">
         <v>1</v>
       </c>
-      <c r="AR14" t="s">
-        <v>57</v>
+      <c r="AR14" t="n">
+        <v>27</v>
       </c>
       <c r="AS14" t="b">
         <v>1</v>
@@ -2374,8 +2350,8 @@
       <c r="AQ15" t="b">
         <v>1</v>
       </c>
-      <c r="AR15" t="s">
-        <v>58</v>
+      <c r="AR15" t="n">
+        <v>39</v>
       </c>
       <c r="AS15" t="b">
         <v>1</v>
@@ -2497,13 +2473,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="b">
@@ -2741,8 +2717,8 @@
       <c r="AQ18" t="b">
         <v>1</v>
       </c>
-      <c r="AR18" t="s">
-        <v>57</v>
+      <c r="AR18" t="n">
+        <v>27</v>
       </c>
       <c r="AS18" t="b">
         <v>1</v>
@@ -2866,7 +2842,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>17</v>
@@ -2991,8 +2967,8 @@
       <c r="AQ20" t="b">
         <v>1</v>
       </c>
-      <c r="AR20" t="s">
-        <v>51</v>
+      <c r="AR20" t="n">
+        <v>15</v>
       </c>
       <c r="AS20" t="b">
         <v>1</v>
@@ -3003,7 +2979,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>16</v>
@@ -3116,7 +3092,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
         <v>17</v>
@@ -3229,7 +3205,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
         <v>19</v>
@@ -3457,8 +3433,8 @@
       <c r="AQ24" t="b">
         <v>1</v>
       </c>
-      <c r="AR24" t="s">
-        <v>53</v>
+      <c r="AR24" t="n">
+        <v>21</v>
       </c>
       <c r="AS24" t="b">
         <v>1</v>
@@ -3469,7 +3445,7 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
         <v>18</v>
@@ -3721,8 +3697,8 @@
       <c r="AQ26" t="b">
         <v>1</v>
       </c>
-      <c r="AR26" t="s">
-        <v>53</v>
+      <c r="AR26" t="n">
+        <v>21</v>
       </c>
       <c r="AS26" t="b">
         <v>1</v>
@@ -3848,8 +3824,8 @@
       <c r="AQ27" t="b">
         <v>1</v>
       </c>
-      <c r="AR27" t="s">
-        <v>51</v>
+      <c r="AR27" t="n">
+        <v>15</v>
       </c>
       <c r="AS27" t="b">
         <v>1</v>
@@ -3981,8 +3957,8 @@
       <c r="AQ28" t="b">
         <v>1</v>
       </c>
-      <c r="AR28" t="s">
-        <v>53</v>
+      <c r="AR28" t="n">
+        <v>21</v>
       </c>
       <c r="AS28" t="b">
         <v>1</v>
@@ -3993,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="n">
         <v>18</v>
@@ -4108,8 +4084,8 @@
       <c r="AQ29" t="b">
         <v>1</v>
       </c>
-      <c r="AR29" t="s">
-        <v>51</v>
+      <c r="AR29" t="n">
+        <v>15</v>
       </c>
       <c r="AS29" t="b">
         <v>1</v>
@@ -4120,7 +4096,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="n">
         <v>19</v>
@@ -4233,8 +4209,8 @@
       <c r="AQ30" t="b">
         <v>1</v>
       </c>
-      <c r="AR30" t="s">
-        <v>57</v>
+      <c r="AR30" t="n">
+        <v>27</v>
       </c>
       <c r="AS30" t="b">
         <v>1</v>
@@ -4245,7 +4221,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="n">
         <v>17</v>
@@ -4368,8 +4344,8 @@
       <c r="AQ31" t="b">
         <v>1</v>
       </c>
-      <c r="AR31" t="s">
-        <v>51</v>
+      <c r="AR31" t="n">
+        <v>15</v>
       </c>
       <c r="AS31" t="b">
         <v>1</v>
@@ -4493,7 +4469,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="n">
         <v>17</v>
@@ -4622,7 +4598,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="n">
         <v>17</v>
@@ -4747,8 +4723,8 @@
       <c r="AQ34" t="b">
         <v>1</v>
       </c>
-      <c r="AR34" t="s">
-        <v>53</v>
+      <c r="AR34" t="n">
+        <v>21</v>
       </c>
       <c r="AS34" t="b">
         <v>1</v>
@@ -4759,7 +4735,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" t="n">
         <v>17</v>
@@ -4870,8 +4846,8 @@
       <c r="AQ35" t="b">
         <v>1</v>
       </c>
-      <c r="AR35" t="s">
-        <v>53</v>
+      <c r="AR35" t="n">
+        <v>21</v>
       </c>
       <c r="AS35" t="b">
         <v>1</v>
@@ -5005,8 +4981,8 @@
       <c r="AQ36" t="b">
         <v>1</v>
       </c>
-      <c r="AR36" t="s">
-        <v>51</v>
+      <c r="AR36" t="n">
+        <v>15</v>
       </c>
       <c r="AS36" t="b">
         <v>1</v>
@@ -5017,7 +4993,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="n">
         <v>16</v>
@@ -5271,8 +5247,8 @@
       <c r="AQ38" t="b">
         <v>1</v>
       </c>
-      <c r="AR38" t="s">
-        <v>51</v>
+      <c r="AR38" t="n">
+        <v>15</v>
       </c>
       <c r="AS38" t="b">
         <v>1</v>
@@ -5283,7 +5259,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="n">
         <v>18</v>
@@ -5406,8 +5382,8 @@
       <c r="AQ39" t="b">
         <v>1</v>
       </c>
-      <c r="AR39" t="s">
-        <v>59</v>
+      <c r="AR39" t="n">
+        <v>9</v>
       </c>
       <c r="AS39" t="b">
         <v>1</v>
@@ -5533,8 +5509,8 @@
       <c r="AQ40" t="b">
         <v>1</v>
       </c>
-      <c r="AR40" t="s">
-        <v>51</v>
+      <c r="AR40" t="n">
+        <v>15</v>
       </c>
       <c r="AS40" t="b">
         <v>1</v>
@@ -5658,7 +5634,7 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="n">
         <v>17</v>
@@ -5773,7 +5749,7 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="n">
         <v>16</v>
@@ -5898,8 +5874,8 @@
       <c r="AQ43" t="b">
         <v>1</v>
       </c>
-      <c r="AR43" t="s">
-        <v>51</v>
+      <c r="AR43" t="n">
+        <v>15</v>
       </c>
       <c r="AS43" t="b">
         <v>1</v>
@@ -5910,7 +5886,7 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="n">
         <v>19</v>
@@ -6021,8 +5997,8 @@
       <c r="AQ44" t="b">
         <v>1</v>
       </c>
-      <c r="AR44" t="s">
-        <v>51</v>
+      <c r="AR44" t="n">
+        <v>15</v>
       </c>
       <c r="AS44" t="b">
         <v>1</v>
@@ -6033,7 +6009,7 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="n">
         <v>18</v>
@@ -6168,7 +6144,7 @@
         <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -6265,7 +6241,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="n">
         <v>17</v>
@@ -6378,7 +6354,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="n">
         <v>16</v>
@@ -6503,8 +6479,8 @@
       <c r="AQ48" t="b">
         <v>1</v>
       </c>
-      <c r="AR48" t="s">
-        <v>57</v>
+      <c r="AR48" t="n">
+        <v>27</v>
       </c>
       <c r="AS48" t="b">
         <v>1</v>
@@ -6628,8 +6604,8 @@
       <c r="AQ49" t="b">
         <v>1</v>
       </c>
-      <c r="AR49" t="s">
-        <v>53</v>
+      <c r="AR49" t="n">
+        <v>21</v>
       </c>
       <c r="AS49" t="b">
         <v>1</v>
@@ -6761,8 +6737,8 @@
       <c r="AQ50" t="b">
         <v>1</v>
       </c>
-      <c r="AR50" t="s">
-        <v>53</v>
+      <c r="AR50" t="n">
+        <v>21</v>
       </c>
       <c r="AS50" t="b">
         <v>1</v>
@@ -6880,8 +6856,8 @@
       <c r="AQ51" t="b">
         <v>0</v>
       </c>
-      <c r="AR51" t="s">
-        <v>57</v>
+      <c r="AR51" t="n">
+        <v>27</v>
       </c>
       <c r="AS51" t="b">
         <v>0</v>
@@ -6892,7 +6868,7 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="n">
         <v>18</v>
@@ -7013,8 +6989,8 @@
       <c r="AQ52" t="b">
         <v>1</v>
       </c>
-      <c r="AR52" t="s">
-        <v>51</v>
+      <c r="AR52" t="n">
+        <v>15</v>
       </c>
       <c r="AS52" t="b">
         <v>1</v>
@@ -7025,7 +7001,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
         <v>18</v>
@@ -7150,8 +7126,8 @@
       <c r="AQ53" t="b">
         <v>1</v>
       </c>
-      <c r="AR53" t="s">
-        <v>54</v>
+      <c r="AR53" t="n">
+        <v>45</v>
       </c>
       <c r="AS53" t="b">
         <v>1</v>
@@ -7279,8 +7255,8 @@
       <c r="AQ54" t="b">
         <v>1</v>
       </c>
-      <c r="AR54" t="s">
-        <v>53</v>
+      <c r="AR54" t="n">
+        <v>21</v>
       </c>
       <c r="AS54" t="b">
         <v>1</v>
@@ -7291,7 +7267,7 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="n">
         <v>19</v>
@@ -7412,8 +7388,8 @@
       <c r="AQ55" t="b">
         <v>1</v>
       </c>
-      <c r="AR55" t="s">
-        <v>51</v>
+      <c r="AR55" t="n">
+        <v>15</v>
       </c>
       <c r="AS55" t="b">
         <v>1</v>
@@ -7642,7 +7618,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" t="n">
         <v>17</v>
@@ -7767,7 +7743,7 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" t="n">
         <v>17</v>
@@ -7880,7 +7856,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C60" t="n">
         <v>16</v>
@@ -8106,7 +8082,7 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" t="n">
         <v>17</v>
@@ -8219,8 +8195,8 @@
       <c r="AQ62" t="b">
         <v>1</v>
       </c>
-      <c r="AR62" t="s">
-        <v>51</v>
+      <c r="AR62" t="n">
+        <v>15</v>
       </c>
       <c r="AS62" t="b">
         <v>1</v>
@@ -8473,7 +8449,7 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C65" t="n">
         <v>17</v>
@@ -8582,8 +8558,8 @@
       <c r="AQ65" t="b">
         <v>1</v>
       </c>
-      <c r="AR65" t="s">
-        <v>51</v>
+      <c r="AR65" t="n">
+        <v>15</v>
       </c>
       <c r="AS65" t="b">
         <v>1</v>
@@ -8594,7 +8570,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" t="n">
         <v>17</v>
@@ -8713,7 +8689,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" t="n">
         <v>18</v>
@@ -8826,7 +8802,7 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" t="n">
         <v>18</v>
@@ -8947,8 +8923,8 @@
       <c r="AQ68" t="b">
         <v>1</v>
       </c>
-      <c r="AR68" t="s">
-        <v>51</v>
+      <c r="AR68" t="n">
+        <v>15</v>
       </c>
       <c r="AS68" t="b">
         <v>1</v>
@@ -8959,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="n">
         <v>16</v>
@@ -9084,8 +9060,8 @@
       <c r="AQ69" t="b">
         <v>1</v>
       </c>
-      <c r="AR69" t="s">
-        <v>51</v>
+      <c r="AR69" t="n">
+        <v>15</v>
       </c>
       <c r="AS69" t="b">
         <v>1</v>
@@ -9221,8 +9197,8 @@
       <c r="AQ70" t="b">
         <v>1</v>
       </c>
-      <c r="AR70" t="s">
-        <v>51</v>
+      <c r="AR70" t="n">
+        <v>15</v>
       </c>
       <c r="AS70" t="b">
         <v>1</v>
@@ -9233,7 +9209,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" t="n">
         <v>16</v>
@@ -9471,8 +9447,8 @@
       <c r="AQ72" t="b">
         <v>1</v>
       </c>
-      <c r="AR72" t="s">
-        <v>53</v>
+      <c r="AR72" t="n">
+        <v>21</v>
       </c>
       <c r="AS72" t="b">
         <v>1</v>
@@ -9483,7 +9459,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="n">
         <v>16</v>
@@ -9596,7 +9572,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" t="n">
         <v>17</v>
@@ -9721,8 +9697,8 @@
       <c r="AQ74" t="b">
         <v>1</v>
       </c>
-      <c r="AR74" t="s">
-        <v>51</v>
+      <c r="AR74" t="n">
+        <v>15</v>
       </c>
       <c r="AS74" t="b">
         <v>1</v>
@@ -9733,7 +9709,7 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" t="n">
         <v>16</v>
@@ -9846,7 +9822,7 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" t="n">
         <v>17</v>
@@ -9959,7 +9935,7 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="n">
         <v>18</v>
@@ -10185,7 +10161,7 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" t="n">
         <v>19</v>
@@ -10314,7 +10290,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" t="n">
         <v>16</v>
@@ -10427,8 +10403,8 @@
       <c r="AQ80" t="b">
         <v>1</v>
       </c>
-      <c r="AR80" t="s">
-        <v>53</v>
+      <c r="AR80" t="n">
+        <v>21</v>
       </c>
       <c r="AS80" t="b">
         <v>1</v>
@@ -10439,7 +10415,7 @@
         <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="n">
         <v>19</v>
@@ -10562,8 +10538,8 @@
       <c r="AQ81" t="b">
         <v>1</v>
       </c>
-      <c r="AR81" t="s">
-        <v>49</v>
+      <c r="AR81" t="n">
+        <v>3</v>
       </c>
       <c r="AS81" t="b">
         <v>1</v>
@@ -10574,7 +10550,7 @@
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" t="n">
         <v>16</v>
@@ -10667,7 +10643,7 @@
         <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" t="n">
         <v>16</v>
@@ -10788,8 +10764,8 @@
       <c r="AQ83" t="b">
         <v>1</v>
       </c>
-      <c r="AR83" t="s">
-        <v>53</v>
+      <c r="AR83" t="n">
+        <v>21</v>
       </c>
       <c r="AS83" t="b">
         <v>1</v>
@@ -10897,7 +10873,7 @@
         <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" t="n">
         <v>17</v>
@@ -11022,8 +10998,8 @@
       <c r="AQ85" t="b">
         <v>1</v>
       </c>
-      <c r="AR85" t="s">
-        <v>51</v>
+      <c r="AR85" t="n">
+        <v>15</v>
       </c>
       <c r="AS85" t="b">
         <v>1</v>
@@ -11034,7 +11010,7 @@
         <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C86" t="n">
         <v>17</v>
@@ -11272,8 +11248,8 @@
       <c r="AQ87" t="b">
         <v>1</v>
       </c>
-      <c r="AR87" t="s">
-        <v>53</v>
+      <c r="AR87" t="n">
+        <v>21</v>
       </c>
       <c r="AS87" t="b">
         <v>1</v>
@@ -11284,7 +11260,7 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C88" t="n">
         <v>18</v>
@@ -11405,8 +11381,8 @@
       <c r="AQ88" t="b">
         <v>1</v>
       </c>
-      <c r="AR88" t="s">
-        <v>53</v>
+      <c r="AR88" t="n">
+        <v>21</v>
       </c>
       <c r="AS88" t="b">
         <v>1</v>
@@ -11633,8 +11609,8 @@
       <c r="AQ90" t="b">
         <v>1</v>
       </c>
-      <c r="AR90" t="s">
-        <v>53</v>
+      <c r="AR90" t="n">
+        <v>21</v>
       </c>
       <c r="AS90" t="b">
         <v>1</v>
@@ -11645,7 +11621,7 @@
         <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C91" t="n">
         <v>16</v>
@@ -11766,8 +11742,8 @@
       <c r="AQ91" t="b">
         <v>1</v>
       </c>
-      <c r="AR91" t="s">
-        <v>51</v>
+      <c r="AR91" t="n">
+        <v>15</v>
       </c>
       <c r="AS91" t="b">
         <v>1</v>
@@ -11903,8 +11879,8 @@
       <c r="AQ92" t="b">
         <v>1</v>
       </c>
-      <c r="AR92" t="s">
-        <v>57</v>
+      <c r="AR92" t="n">
+        <v>27</v>
       </c>
       <c r="AS92" t="b">
         <v>1</v>
@@ -11915,7 +11891,7 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C93" t="n">
         <v>17</v>
@@ -12024,8 +12000,8 @@
       <c r="AQ93" t="b">
         <v>1</v>
       </c>
-      <c r="AR93" t="s">
-        <v>51</v>
+      <c r="AR93" t="n">
+        <v>15</v>
       </c>
       <c r="AS93" t="b">
         <v>1</v>
@@ -12036,7 +12012,7 @@
         <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C94" t="n">
         <v>17</v>
@@ -12147,8 +12123,8 @@
       <c r="AQ94" t="b">
         <v>1</v>
       </c>
-      <c r="AR94" t="s">
-        <v>51</v>
+      <c r="AR94" t="n">
+        <v>15</v>
       </c>
       <c r="AS94" t="b">
         <v>1</v>
@@ -12284,8 +12260,8 @@
       <c r="AQ95" t="b">
         <v>1</v>
       </c>
-      <c r="AR95" t="s">
-        <v>53</v>
+      <c r="AR95" t="n">
+        <v>21</v>
       </c>
       <c r="AS95" t="b">
         <v>1</v>
@@ -12421,7 +12397,7 @@
         <v>113</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C97" t="n">
         <v>17</v>
@@ -12657,8 +12633,8 @@
       <c r="AQ98" t="b">
         <v>1</v>
       </c>
-      <c r="AR98" t="s">
-        <v>58</v>
+      <c r="AR98" t="n">
+        <v>39</v>
       </c>
       <c r="AS98" t="b">
         <v>1</v>
@@ -12913,8 +12889,8 @@
       <c r="AQ100" t="b">
         <v>1</v>
       </c>
-      <c r="AR100" t="s">
-        <v>51</v>
+      <c r="AR100" t="n">
+        <v>15</v>
       </c>
       <c r="AS100" t="b">
         <v>1</v>
@@ -13302,8 +13278,8 @@
       <c r="AQ103" t="b">
         <v>1</v>
       </c>
-      <c r="AR103" t="s">
-        <v>57</v>
+      <c r="AR103" t="n">
+        <v>27</v>
       </c>
       <c r="AS103" t="b">
         <v>1</v>
@@ -13433,8 +13409,8 @@
       <c r="AQ104" t="b">
         <v>1</v>
       </c>
-      <c r="AR104" t="s">
-        <v>51</v>
+      <c r="AR104" t="n">
+        <v>15</v>
       </c>
       <c r="AS104" t="b">
         <v>1</v>
@@ -13572,7 +13548,7 @@
         <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C106" t="n">
         <v>18</v>
@@ -13814,7 +13790,7 @@
         <v>124</v>
       </c>
       <c r="B108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C108" t="n">
         <v>16</v>
@@ -13931,8 +13907,8 @@
       <c r="AQ108" t="b">
         <v>1</v>
       </c>
-      <c r="AR108" t="s">
-        <v>58</v>
+      <c r="AR108" t="n">
+        <v>39</v>
       </c>
       <c r="AS108" t="b">
         <v>1</v>
@@ -13943,7 +13919,7 @@
         <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C109" t="n">
         <v>18</v>
@@ -14064,8 +14040,8 @@
       <c r="AQ109" t="b">
         <v>1</v>
       </c>
-      <c r="AR109" t="s">
-        <v>51</v>
+      <c r="AR109" t="n">
+        <v>15</v>
       </c>
       <c r="AS109" t="b">
         <v>1</v>
@@ -14205,7 +14181,7 @@
         <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C111" t="n">
         <v>18</v>
@@ -14320,8 +14296,8 @@
       <c r="AQ111" t="b">
         <v>1</v>
       </c>
-      <c r="AR111" t="s">
-        <v>53</v>
+      <c r="AR111" t="n">
+        <v>21</v>
       </c>
       <c r="AS111" t="b">
         <v>1</v>
@@ -14332,7 +14308,7 @@
         <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C112" t="n">
         <v>18</v>
@@ -14461,7 +14437,7 @@
         <v>129</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C113" t="n">
         <v>17</v>
@@ -14586,8 +14562,8 @@
       <c r="AQ113" t="b">
         <v>1</v>
       </c>
-      <c r="AR113" t="s">
-        <v>51</v>
+      <c r="AR113" t="n">
+        <v>15</v>
       </c>
       <c r="AS113" t="b">
         <v>1</v>
@@ -14598,7 +14574,7 @@
         <v>131</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C114" t="n">
         <v>16</v>
@@ -14723,8 +14699,8 @@
       <c r="AQ114" t="b">
         <v>1</v>
       </c>
-      <c r="AR114" t="s">
-        <v>51</v>
+      <c r="AR114" t="n">
+        <v>15</v>
       </c>
       <c r="AS114" t="b">
         <v>1</v>
@@ -14848,7 +14824,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C116" t="n">
         <v>16</v>
@@ -15082,8 +15058,8 @@
       <c r="AQ117" t="b">
         <v>1</v>
       </c>
-      <c r="AR117" t="s">
-        <v>53</v>
+      <c r="AR117" t="n">
+        <v>21</v>
       </c>
       <c r="AS117" t="b">
         <v>1</v>
@@ -15094,7 +15070,7 @@
         <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C118" t="n">
         <v>17</v>
@@ -15219,8 +15195,8 @@
       <c r="AQ118" t="b">
         <v>1</v>
       </c>
-      <c r="AR118" t="s">
-        <v>51</v>
+      <c r="AR118" t="n">
+        <v>15</v>
       </c>
       <c r="AS118" t="b">
         <v>1</v>
@@ -15231,7 +15207,7 @@
         <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C119" t="n">
         <v>16</v>
@@ -15346,8 +15322,8 @@
       <c r="AQ119" t="b">
         <v>1</v>
       </c>
-      <c r="AR119" t="s">
-        <v>57</v>
+      <c r="AR119" t="n">
+        <v>27</v>
       </c>
       <c r="AS119" t="b">
         <v>1</v>
@@ -15461,8 +15437,8 @@
       <c r="AQ120" t="b">
         <v>0</v>
       </c>
-      <c r="AR120" t="s">
-        <v>60</v>
+      <c r="AR120" t="n">
+        <v>-18</v>
       </c>
       <c r="AS120" t="b">
         <v>0</v>
@@ -15582,7 +15558,7 @@
         <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C122" t="n">
         <v>16</v>
@@ -15820,8 +15796,8 @@
       <c r="AQ123" t="b">
         <v>1</v>
       </c>
-      <c r="AR123" t="s">
-        <v>53</v>
+      <c r="AR123" t="n">
+        <v>21</v>
       </c>
       <c r="AS123" t="b">
         <v>1</v>
@@ -15957,8 +15933,8 @@
       <c r="AQ124" t="b">
         <v>1</v>
       </c>
-      <c r="AR124" t="s">
-        <v>51</v>
+      <c r="AR124" t="n">
+        <v>15</v>
       </c>
       <c r="AS124" t="b">
         <v>1</v>
@@ -16094,8 +16070,8 @@
       <c r="AQ125" t="b">
         <v>1</v>
       </c>
-      <c r="AR125" t="s">
-        <v>53</v>
+      <c r="AR125" t="n">
+        <v>21</v>
       </c>
       <c r="AS125" t="b">
         <v>1</v>
@@ -16106,7 +16082,7 @@
         <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C126" t="n">
         <v>15</v>
@@ -16219,7 +16195,7 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C127" t="n">
         <v>18</v>
@@ -16342,8 +16318,8 @@
       <c r="AQ127" t="b">
         <v>1</v>
       </c>
-      <c r="AR127" t="s">
-        <v>53</v>
+      <c r="AR127" t="n">
+        <v>21</v>
       </c>
       <c r="AS127" t="b">
         <v>1</v>
@@ -16479,8 +16455,8 @@
       <c r="AQ128" t="b">
         <v>1</v>
       </c>
-      <c r="AR128" t="s">
-        <v>57</v>
+      <c r="AR128" t="n">
+        <v>27</v>
       </c>
       <c r="AS128" t="b">
         <v>1</v>
@@ -16491,7 +16467,7 @@
         <v>148</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C129" t="n">
         <v>17</v>
@@ -16604,7 +16580,7 @@
         <v>149</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C130" t="n">
         <v>18</v>
@@ -16729,8 +16705,8 @@
       <c r="AQ130" t="b">
         <v>1</v>
       </c>
-      <c r="AR130" t="s">
-        <v>53</v>
+      <c r="AR130" t="n">
+        <v>21</v>
       </c>
       <c r="AS130" t="b">
         <v>1</v>
@@ -16854,7 +16830,7 @@
         <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C132" t="n">
         <v>18</v>
@@ -16975,8 +16951,8 @@
       <c r="AQ132" t="b">
         <v>1</v>
       </c>
-      <c r="AR132" t="s">
-        <v>51</v>
+      <c r="AR132" t="n">
+        <v>15</v>
       </c>
       <c r="AS132" t="b">
         <v>1</v>
@@ -16987,7 +16963,7 @@
         <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" t="n">
         <v>19</v>
@@ -17112,8 +17088,8 @@
       <c r="AQ133" t="b">
         <v>1</v>
       </c>
-      <c r="AR133" t="s">
-        <v>51</v>
+      <c r="AR133" t="n">
+        <v>15</v>
       </c>
       <c r="AS133" t="b">
         <v>1</v>
@@ -17249,8 +17225,8 @@
       <c r="AQ134" t="b">
         <v>1</v>
       </c>
-      <c r="AR134" t="s">
-        <v>53</v>
+      <c r="AR134" t="n">
+        <v>21</v>
       </c>
       <c r="AS134" t="b">
         <v>1</v>
@@ -17382,8 +17358,8 @@
       <c r="AQ135" t="b">
         <v>1</v>
       </c>
-      <c r="AR135" t="s">
-        <v>59</v>
+      <c r="AR135" t="n">
+        <v>9</v>
       </c>
       <c r="AS135" t="b">
         <v>1</v>
@@ -17519,8 +17495,8 @@
       <c r="AQ136" t="b">
         <v>1</v>
       </c>
-      <c r="AR136" t="s">
-        <v>53</v>
+      <c r="AR136" t="n">
+        <v>21</v>
       </c>
       <c r="AS136" t="b">
         <v>1</v>
@@ -17531,7 +17507,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C137" t="n">
         <v>18</v>
@@ -17644,8 +17620,8 @@
       <c r="AQ137" t="b">
         <v>1</v>
       </c>
-      <c r="AR137" t="s">
-        <v>51</v>
+      <c r="AR137" t="n">
+        <v>15</v>
       </c>
       <c r="AS137" t="b">
         <v>1</v>
@@ -17779,8 +17755,8 @@
       <c r="AQ138" t="b">
         <v>1</v>
       </c>
-      <c r="AR138" t="s">
-        <v>53</v>
+      <c r="AR138" t="n">
+        <v>21</v>
       </c>
       <c r="AS138" t="b">
         <v>1</v>
@@ -17791,7 +17767,7 @@
         <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C139" t="n">
         <v>16</v>
@@ -17906,8 +17882,8 @@
       <c r="AQ139" t="b">
         <v>1</v>
       </c>
-      <c r="AR139" t="s">
-        <v>53</v>
+      <c r="AR139" t="n">
+        <v>21</v>
       </c>
       <c r="AS139" t="b">
         <v>1</v>
@@ -18043,7 +18019,7 @@
         <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C141" t="n">
         <v>19</v>
@@ -18166,8 +18142,8 @@
       <c r="AQ141" t="b">
         <v>1</v>
       </c>
-      <c r="AR141" t="s">
-        <v>53</v>
+      <c r="AR141" t="n">
+        <v>21</v>
       </c>
       <c r="AS141" t="b">
         <v>1</v>
@@ -18178,7 +18154,7 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C142" t="n">
         <v>18</v>
@@ -18301,7 +18277,7 @@
         <v>163</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C143" t="n">
         <v>16</v>
@@ -18414,7 +18390,7 @@
         <v>164</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C144" t="n">
         <v>16</v>
@@ -18539,8 +18515,8 @@
       <c r="AQ144" t="b">
         <v>1</v>
       </c>
-      <c r="AR144" t="s">
-        <v>54</v>
+      <c r="AR144" t="n">
+        <v>45</v>
       </c>
       <c r="AS144" t="b">
         <v>1</v>
@@ -18674,8 +18650,8 @@
       <c r="AQ145" t="b">
         <v>1</v>
       </c>
-      <c r="AR145" t="s">
-        <v>59</v>
+      <c r="AR145" t="n">
+        <v>9</v>
       </c>
       <c r="AS145" t="b">
         <v>1</v>
@@ -18686,7 +18662,7 @@
         <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C146" t="n">
         <v>16</v>
@@ -18801,8 +18777,8 @@
       <c r="AQ146" t="b">
         <v>1</v>
       </c>
-      <c r="AR146" t="s">
-        <v>53</v>
+      <c r="AR146" t="n">
+        <v>21</v>
       </c>
       <c r="AS146" t="b">
         <v>1</v>
@@ -18813,7 +18789,7 @@
         <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C147" t="n">
         <v>16</v>
@@ -18920,7 +18896,7 @@
         <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C148" t="n">
         <v>19</v>
@@ -19043,8 +19019,8 @@
       <c r="AQ148" t="b">
         <v>1</v>
       </c>
-      <c r="AR148" t="s">
-        <v>49</v>
+      <c r="AR148" t="n">
+        <v>3</v>
       </c>
       <c r="AS148" t="b">
         <v>1</v>
@@ -19055,7 +19031,7 @@
         <v>169</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C149" t="n">
         <v>18</v>
@@ -19168,7 +19144,7 @@
         <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C150" t="n">
         <v>19</v>
@@ -19394,7 +19370,7 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C152" t="n">
         <v>17</v>
@@ -19507,7 +19483,7 @@
         <v>174</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C153" t="n">
         <v>15</v>
@@ -19632,8 +19608,8 @@
       <c r="AQ153" t="b">
         <v>1</v>
       </c>
-      <c r="AR153" t="s">
-        <v>53</v>
+      <c r="AR153" t="n">
+        <v>21</v>
       </c>
       <c r="AS153" t="b">
         <v>1</v>
@@ -19757,7 +19733,7 @@
         <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C155" t="n">
         <v>18</v>
@@ -19979,7 +19955,7 @@
         <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C157" t="n">
         <v>18</v>
@@ -20215,8 +20191,8 @@
       <c r="AQ158" t="b">
         <v>1</v>
       </c>
-      <c r="AR158" t="s">
-        <v>53</v>
+      <c r="AR158" t="n">
+        <v>21</v>
       </c>
       <c r="AS158" t="b">
         <v>1</v>
@@ -20227,7 +20203,7 @@
         <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C159" t="n">
         <v>16</v>
@@ -20346,8 +20322,8 @@
       <c r="AQ159" t="b">
         <v>1</v>
       </c>
-      <c r="AR159" t="s">
-        <v>51</v>
+      <c r="AR159" t="n">
+        <v>15</v>
       </c>
       <c r="AS159" t="b">
         <v>1</v>
@@ -20481,8 +20457,8 @@
       <c r="AQ160" t="b">
         <v>1</v>
       </c>
-      <c r="AR160" t="s">
-        <v>53</v>
+      <c r="AR160" t="n">
+        <v>21</v>
       </c>
       <c r="AS160" t="b">
         <v>1</v>
@@ -20606,7 +20582,7 @@
         <v>186</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C162" t="n">
         <v>16</v>
@@ -20731,8 +20707,8 @@
       <c r="AQ162" t="b">
         <v>1</v>
       </c>
-      <c r="AR162" t="s">
-        <v>57</v>
+      <c r="AR162" t="n">
+        <v>27</v>
       </c>
       <c r="AS162" t="b">
         <v>1</v>
@@ -20743,7 +20719,7 @@
         <v>187</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C163" t="n">
         <v>17</v>
@@ -20852,7 +20828,7 @@
         <v>188</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C164" t="n">
         <v>17</v>
@@ -20967,8 +20943,8 @@
       <c r="AQ164" t="b">
         <v>1</v>
       </c>
-      <c r="AR164" t="s">
-        <v>51</v>
+      <c r="AR164" t="n">
+        <v>15</v>
       </c>
       <c r="AS164" t="b">
         <v>1</v>
@@ -21086,8 +21062,8 @@
       <c r="AQ165" t="b">
         <v>1</v>
       </c>
-      <c r="AR165" t="s">
-        <v>53</v>
+      <c r="AR165" t="n">
+        <v>21</v>
       </c>
       <c r="AS165" t="b">
         <v>1</v>
@@ -21098,7 +21074,7 @@
         <v>190</v>
       </c>
       <c r="B166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C166" t="n">
         <v>19</v>
@@ -21223,8 +21199,8 @@
       <c r="AQ166" t="b">
         <v>1</v>
       </c>
-      <c r="AR166" t="s">
-        <v>53</v>
+      <c r="AR166" t="n">
+        <v>21</v>
       </c>
       <c r="AS166" t="b">
         <v>1</v>
@@ -21475,7 +21451,7 @@
         <v>193</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C169" t="n">
         <v>17</v>
@@ -21588,7 +21564,7 @@
         <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C170" t="n">
         <v>16</v>
@@ -21707,8 +21683,8 @@
       <c r="AQ170" t="b">
         <v>1</v>
       </c>
-      <c r="AR170" t="s">
-        <v>53</v>
+      <c r="AR170" t="n">
+        <v>21</v>
       </c>
       <c r="AS170" t="b">
         <v>1</v>
@@ -21844,8 +21820,8 @@
       <c r="AQ171" t="b">
         <v>1</v>
       </c>
-      <c r="AR171" t="s">
-        <v>53</v>
+      <c r="AR171" t="n">
+        <v>21</v>
       </c>
       <c r="AS171" t="b">
         <v>1</v>
@@ -21856,7 +21832,7 @@
         <v>196</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C172" t="n">
         <v>17</v>
@@ -21969,7 +21945,7 @@
         <v>198</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C173" t="n">
         <v>19</v>
@@ -22094,8 +22070,8 @@
       <c r="AQ173" t="b">
         <v>1</v>
       </c>
-      <c r="AR173" t="s">
-        <v>56</v>
+      <c r="AR173" t="n">
+        <v>33</v>
       </c>
       <c r="AS173" t="b">
         <v>1</v>
@@ -22106,7 +22082,7 @@
         <v>199</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C174" t="n">
         <v>17</v>
@@ -22229,8 +22205,8 @@
       <c r="AQ174" t="b">
         <v>1</v>
       </c>
-      <c r="AR174" t="s">
-        <v>53</v>
+      <c r="AR174" t="n">
+        <v>21</v>
       </c>
       <c r="AS174" t="b">
         <v>1</v>
@@ -22354,7 +22330,7 @@
         <v>201</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C176" t="n">
         <v>18</v>
@@ -22461,8 +22437,8 @@
       <c r="AQ176" t="b">
         <v>1</v>
       </c>
-      <c r="AR176" t="s">
-        <v>53</v>
+      <c r="AR176" t="n">
+        <v>21</v>
       </c>
       <c r="AS176" t="b">
         <v>1</v>
@@ -22473,7 +22449,7 @@
         <v>203</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C177" t="n">
         <v>17</v>
@@ -22598,8 +22574,8 @@
       <c r="AQ177" t="b">
         <v>1</v>
       </c>
-      <c r="AR177" t="s">
-        <v>51</v>
+      <c r="AR177" t="n">
+        <v>15</v>
       </c>
       <c r="AS177" t="b">
         <v>1</v>
@@ -22610,7 +22586,7 @@
         <v>204</v>
       </c>
       <c r="B178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C178" t="n">
         <v>16</v>
@@ -22854,8 +22830,8 @@
       <c r="AQ179" t="b">
         <v>1</v>
       </c>
-      <c r="AR179" t="s">
-        <v>51</v>
+      <c r="AR179" t="n">
+        <v>15</v>
       </c>
       <c r="AS179" t="b">
         <v>1</v>
@@ -22866,7 +22842,7 @@
         <v>206</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C180" t="n">
         <v>18</v>
@@ -22957,8 +22933,8 @@
       <c r="AQ180" t="b">
         <v>1</v>
       </c>
-      <c r="AR180" t="s">
-        <v>53</v>
+      <c r="AR180" t="n">
+        <v>21</v>
       </c>
       <c r="AS180" t="b">
         <v>1</v>
@@ -22969,7 +22945,7 @@
         <v>207</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C181" t="n">
         <v>16</v>
@@ -23197,8 +23173,8 @@
       <c r="AQ182" t="b">
         <v>1</v>
       </c>
-      <c r="AR182" t="s">
-        <v>49</v>
+      <c r="AR182" t="n">
+        <v>3</v>
       </c>
       <c r="AS182" t="b">
         <v>1</v>
@@ -23209,7 +23185,7 @@
         <v>210</v>
       </c>
       <c r="B183" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C183" t="n">
         <v>16</v>
@@ -23322,7 +23298,7 @@
         <v>211</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C184" t="n">
         <v>19</v>
@@ -23435,7 +23411,7 @@
         <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C185" t="n">
         <v>16</v>
@@ -23899,8 +23875,8 @@
       <c r="AQ188" t="b">
         <v>1</v>
       </c>
-      <c r="AR188" t="s">
-        <v>51</v>
+      <c r="AR188" t="n">
+        <v>15</v>
       </c>
       <c r="AS188" t="b">
         <v>1</v>
@@ -23911,7 +23887,7 @@
         <v>217</v>
       </c>
       <c r="B189" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C189" t="n">
         <v>16</v>
@@ -24036,8 +24012,8 @@
       <c r="AQ189" t="b">
         <v>1</v>
       </c>
-      <c r="AR189" t="s">
-        <v>51</v>
+      <c r="AR189" t="n">
+        <v>15</v>
       </c>
       <c r="AS189" t="b">
         <v>1</v>
@@ -24173,8 +24149,8 @@
       <c r="AQ190" t="b">
         <v>1</v>
       </c>
-      <c r="AR190" t="s">
-        <v>51</v>
+      <c r="AR190" t="n">
+        <v>15</v>
       </c>
       <c r="AS190" t="b">
         <v>1</v>
@@ -24314,7 +24290,7 @@
         <v>221</v>
       </c>
       <c r="B192" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C192" t="n">
         <v>17</v>
@@ -24542,8 +24518,8 @@
       <c r="AQ193" t="b">
         <v>1</v>
       </c>
-      <c r="AR193" t="s">
-        <v>51</v>
+      <c r="AR193" t="n">
+        <v>15</v>
       </c>
       <c r="AS193" t="b">
         <v>1</v>
@@ -24677,8 +24653,8 @@
       <c r="AQ194" t="b">
         <v>1</v>
       </c>
-      <c r="AR194" t="s">
-        <v>51</v>
+      <c r="AR194" t="n">
+        <v>15</v>
       </c>
       <c r="AS194" t="b">
         <v>1</v>
@@ -24814,8 +24790,8 @@
       <c r="AQ195" t="b">
         <v>1</v>
       </c>
-      <c r="AR195" t="s">
-        <v>51</v>
+      <c r="AR195" t="n">
+        <v>15</v>
       </c>
       <c r="AS195" t="b">
         <v>1</v>
@@ -24939,8 +24915,8 @@
       <c r="AQ196" t="b">
         <v>1</v>
       </c>
-      <c r="AR196" t="s">
-        <v>51</v>
+      <c r="AR196" t="n">
+        <v>15</v>
       </c>
       <c r="AS196" t="b">
         <v>1</v>
@@ -25076,8 +25052,8 @@
       <c r="AQ197" t="b">
         <v>1</v>
       </c>
-      <c r="AR197" t="s">
-        <v>51</v>
+      <c r="AR197" t="n">
+        <v>15</v>
       </c>
       <c r="AS197" t="b">
         <v>1</v>
@@ -25088,7 +25064,7 @@
         <v>228</v>
       </c>
       <c r="B198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C198" t="n">
         <v>18</v>
@@ -25201,7 +25177,7 @@
         <v>229</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C199" t="n">
         <v>18</v>
@@ -25324,8 +25300,8 @@
       <c r="AQ199" t="b">
         <v>1</v>
       </c>
-      <c r="AR199" t="s">
-        <v>53</v>
+      <c r="AR199" t="n">
+        <v>21</v>
       </c>
       <c r="AS199" t="b">
         <v>1</v>
@@ -25336,7 +25312,7 @@
         <v>230</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C200" t="n">
         <v>18</v>
@@ -25465,7 +25441,7 @@
         <v>231</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C201" t="n">
         <v>16</v>
@@ -25578,7 +25554,7 @@
         <v>232</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C202" t="n">
         <v>18</v>
@@ -25701,8 +25677,8 @@
       <c r="AQ202" t="b">
         <v>1</v>
       </c>
-      <c r="AR202" t="s">
-        <v>53</v>
+      <c r="AR202" t="n">
+        <v>21</v>
       </c>
       <c r="AS202" t="b">
         <v>1</v>
@@ -25713,7 +25689,7 @@
         <v>233</v>
       </c>
       <c r="B203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C203" t="n">
         <v>17</v>
@@ -25826,8 +25802,8 @@
       <c r="AQ203" t="b">
         <v>1</v>
       </c>
-      <c r="AR203" t="s">
-        <v>57</v>
+      <c r="AR203" t="n">
+        <v>27</v>
       </c>
       <c r="AS203" t="b">
         <v>1</v>
@@ -25963,8 +25939,8 @@
       <c r="AQ204" t="b">
         <v>1</v>
       </c>
-      <c r="AR204" t="s">
-        <v>57</v>
+      <c r="AR204" t="n">
+        <v>27</v>
       </c>
       <c r="AS204" t="b">
         <v>1</v>
@@ -25975,7 +25951,7 @@
         <v>235</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C205" t="n">
         <v>17</v>
@@ -26219,8 +26195,8 @@
       <c r="AQ206" t="b">
         <v>1</v>
       </c>
-      <c r="AR206" t="s">
-        <v>51</v>
+      <c r="AR206" t="n">
+        <v>15</v>
       </c>
       <c r="AS206" t="b">
         <v>1</v>
@@ -26344,13 +26320,13 @@
         <v>238</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C208" t="n">
         <v>59</v>
       </c>
       <c r="D208" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E208"/>
       <c r="F208"/>
@@ -26447,7 +26423,7 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C209" t="n">
         <v>18</v>
@@ -26681,8 +26657,8 @@
       <c r="AQ210" t="b">
         <v>1</v>
       </c>
-      <c r="AR210" t="s">
-        <v>51</v>
+      <c r="AR210" t="n">
+        <v>15</v>
       </c>
       <c r="AS210" t="b">
         <v>1</v>
@@ -26818,8 +26794,8 @@
       <c r="AQ211" t="b">
         <v>1</v>
       </c>
-      <c r="AR211" t="s">
-        <v>58</v>
+      <c r="AR211" t="n">
+        <v>39</v>
       </c>
       <c r="AS211" t="b">
         <v>1</v>
@@ -26830,7 +26806,7 @@
         <v>242</v>
       </c>
       <c r="B212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C212" t="n">
         <v>16</v>
@@ -26959,7 +26935,7 @@
         <v>243</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C213" t="n">
         <v>18</v>
@@ -27084,8 +27060,8 @@
       <c r="AQ213" t="b">
         <v>1</v>
       </c>
-      <c r="AR213" t="s">
-        <v>57</v>
+      <c r="AR213" t="n">
+        <v>27</v>
       </c>
       <c r="AS213" t="b">
         <v>1</v>
@@ -27096,7 +27072,7 @@
         <v>244</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C214" t="n">
         <v>17</v>
@@ -27211,8 +27187,8 @@
       <c r="AQ214" t="b">
         <v>1</v>
       </c>
-      <c r="AR214" t="s">
-        <v>57</v>
+      <c r="AR214" t="n">
+        <v>27</v>
       </c>
       <c r="AS214" t="b">
         <v>1</v>
@@ -27223,7 +27199,7 @@
         <v>245</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C215" t="n">
         <v>18</v>
@@ -27336,7 +27312,7 @@
         <v>246</v>
       </c>
       <c r="B216" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C216" t="n">
         <v>18</v>
@@ -27459,8 +27435,8 @@
       <c r="AQ216" t="b">
         <v>1</v>
       </c>
-      <c r="AR216" t="s">
-        <v>53</v>
+      <c r="AR216" t="n">
+        <v>21</v>
       </c>
       <c r="AS216" t="b">
         <v>1</v>
@@ -27471,7 +27447,7 @@
         <v>247</v>
       </c>
       <c r="B217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C217" t="n">
         <v>18</v>
@@ -27578,8 +27554,8 @@
       <c r="AQ217" t="b">
         <v>0</v>
       </c>
-      <c r="AR217" t="s">
-        <v>60</v>
+      <c r="AR217" t="n">
+        <v>-18</v>
       </c>
       <c r="AS217" t="b">
         <v>0</v>
@@ -27693,8 +27669,8 @@
       <c r="AQ218" t="b">
         <v>1</v>
       </c>
-      <c r="AR218" t="s">
-        <v>59</v>
+      <c r="AR218" t="n">
+        <v>9</v>
       </c>
       <c r="AS218" t="b">
         <v>1</v>
@@ -27808,7 +27784,7 @@
         <v>250</v>
       </c>
       <c r="B220" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C220" t="n">
         <v>18</v>
@@ -27933,8 +27909,8 @@
       <c r="AQ220" t="b">
         <v>1</v>
       </c>
-      <c r="AR220" t="s">
-        <v>53</v>
+      <c r="AR220" t="n">
+        <v>21</v>
       </c>
       <c r="AS220" t="b">
         <v>1</v>
@@ -27945,7 +27921,7 @@
         <v>251</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C221" t="n">
         <v>18</v>
@@ -28175,8 +28151,8 @@
       <c r="AQ222" t="b">
         <v>1</v>
       </c>
-      <c r="AR222" t="s">
-        <v>51</v>
+      <c r="AR222" t="n">
+        <v>15</v>
       </c>
       <c r="AS222" t="b">
         <v>1</v>
@@ -28300,8 +28276,8 @@
       <c r="AQ223" t="b">
         <v>1</v>
       </c>
-      <c r="AR223" t="s">
-        <v>54</v>
+      <c r="AR223" t="n">
+        <v>45</v>
       </c>
       <c r="AS223" t="b">
         <v>1</v>
@@ -28437,8 +28413,8 @@
       <c r="AQ224" t="b">
         <v>1</v>
       </c>
-      <c r="AR224" t="s">
-        <v>49</v>
+      <c r="AR224" t="n">
+        <v>3</v>
       </c>
       <c r="AS224" t="b">
         <v>1</v>
@@ -28449,7 +28425,7 @@
         <v>255</v>
       </c>
       <c r="B225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C225" t="n">
         <v>18</v>
@@ -28562,7 +28538,7 @@
         <v>256</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C226" t="n">
         <v>18</v>
@@ -28687,8 +28663,8 @@
       <c r="AQ226" t="b">
         <v>1</v>
       </c>
-      <c r="AR226" t="s">
-        <v>53</v>
+      <c r="AR226" t="n">
+        <v>21</v>
       </c>
       <c r="AS226" t="b">
         <v>1</v>
@@ -28699,7 +28675,7 @@
         <v>257</v>
       </c>
       <c r="B227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C227" t="n">
         <v>16</v>
@@ -28927,8 +28903,8 @@
       <c r="AQ228" t="b">
         <v>1</v>
       </c>
-      <c r="AR228" t="s">
-        <v>54</v>
+      <c r="AR228" t="n">
+        <v>45</v>
       </c>
       <c r="AS228" t="b">
         <v>1</v>
@@ -28939,7 +28915,7 @@
         <v>260</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C229" t="n">
         <v>19</v>
@@ -29173,8 +29149,8 @@
       <c r="AQ230" t="b">
         <v>1</v>
       </c>
-      <c r="AR230" t="s">
-        <v>57</v>
+      <c r="AR230" t="n">
+        <v>27</v>
       </c>
       <c r="AS230" t="b">
         <v>1</v>
@@ -29185,7 +29161,7 @@
         <v>262</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C231" t="n">
         <v>18</v>
@@ -29310,8 +29286,8 @@
       <c r="AQ231" t="b">
         <v>1</v>
       </c>
-      <c r="AR231" t="s">
-        <v>51</v>
+      <c r="AR231" t="n">
+        <v>15</v>
       </c>
       <c r="AS231" t="b">
         <v>1</v>
@@ -29322,13 +29298,13 @@
         <v>263</v>
       </c>
       <c r="B232" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C232" t="n">
         <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E232"/>
       <c r="F232" t="b">
@@ -29443,8 +29419,8 @@
       <c r="AQ232" t="b">
         <v>1</v>
       </c>
-      <c r="AR232" t="s">
-        <v>58</v>
+      <c r="AR232" t="n">
+        <v>39</v>
       </c>
       <c r="AS232" t="b">
         <v>1</v>
@@ -29455,7 +29431,7 @@
         <v>264</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C233" t="n">
         <v>17</v>
@@ -29576,8 +29552,8 @@
       <c r="AQ233" t="b">
         <v>1</v>
       </c>
-      <c r="AR233" t="s">
-        <v>51</v>
+      <c r="AR233" t="n">
+        <v>15</v>
       </c>
       <c r="AS233" t="b">
         <v>1</v>
@@ -29588,7 +29564,7 @@
         <v>265</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C234" t="n">
         <v>16</v>
@@ -29834,8 +29810,8 @@
       <c r="AQ235" t="b">
         <v>1</v>
       </c>
-      <c r="AR235" t="s">
-        <v>53</v>
+      <c r="AR235" t="n">
+        <v>21</v>
       </c>
       <c r="AS235" t="b">
         <v>1</v>
@@ -30072,7 +30048,7 @@
         <v>270</v>
       </c>
       <c r="B238" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C238" t="n">
         <v>18</v>
@@ -30195,8 +30171,8 @@
       <c r="AQ238" t="b">
         <v>1</v>
       </c>
-      <c r="AR238" t="s">
-        <v>57</v>
+      <c r="AR238" t="n">
+        <v>27</v>
       </c>
       <c r="AS238" t="b">
         <v>1</v>
@@ -30207,7 +30183,7 @@
         <v>271</v>
       </c>
       <c r="B239" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C239" t="n">
         <v>18</v>
@@ -30330,8 +30306,8 @@
       <c r="AQ239" t="b">
         <v>1</v>
       </c>
-      <c r="AR239" t="s">
-        <v>51</v>
+      <c r="AR239" t="n">
+        <v>15</v>
       </c>
       <c r="AS239" t="b">
         <v>1</v>
@@ -30342,7 +30318,7 @@
         <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C240" t="n">
         <v>18</v>
@@ -30467,8 +30443,8 @@
       <c r="AQ240" t="b">
         <v>1</v>
       </c>
-      <c r="AR240" t="s">
-        <v>51</v>
+      <c r="AR240" t="n">
+        <v>15</v>
       </c>
       <c r="AS240" t="b">
         <v>1</v>
@@ -30604,8 +30580,8 @@
       <c r="AQ241" t="b">
         <v>1</v>
       </c>
-      <c r="AR241" t="s">
-        <v>51</v>
+      <c r="AR241" t="n">
+        <v>15</v>
       </c>
       <c r="AS241" t="b">
         <v>1</v>
@@ -30616,7 +30592,7 @@
         <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C242" t="n">
         <v>16</v>
@@ -30741,8 +30717,8 @@
       <c r="AQ242" t="b">
         <v>1</v>
       </c>
-      <c r="AR242" t="s">
-        <v>53</v>
+      <c r="AR242" t="n">
+        <v>21</v>
       </c>
       <c r="AS242" t="b">
         <v>1</v>
@@ -30753,13 +30729,13 @@
         <v>275</v>
       </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C243" t="n">
         <v>33</v>
       </c>
       <c r="D243" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E243"/>
       <c r="F243" t="b">
@@ -30870,8 +30846,8 @@
       <c r="AQ243" t="b">
         <v>1</v>
       </c>
-      <c r="AR243" t="s">
-        <v>53</v>
+      <c r="AR243" t="n">
+        <v>21</v>
       </c>
       <c r="AS243" t="b">
         <v>1</v>
@@ -30888,7 +30864,7 @@
         <v>58</v>
       </c>
       <c r="D244" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E244"/>
       <c r="F244"/>
@@ -31094,8 +31070,8 @@
       <c r="AQ245" t="b">
         <v>1</v>
       </c>
-      <c r="AR245" t="s">
-        <v>51</v>
+      <c r="AR245" t="n">
+        <v>15</v>
       </c>
       <c r="AS245" t="b">
         <v>1</v>
@@ -31106,7 +31082,7 @@
         <v>278</v>
       </c>
       <c r="B246" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C246" t="n">
         <v>16</v>
@@ -31219,7 +31195,7 @@
         <v>279</v>
       </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C247" t="n">
         <v>18</v>
@@ -31344,13 +31320,13 @@
         <v>280</v>
       </c>
       <c r="B248" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C248" t="n">
         <v>54</v>
       </c>
       <c r="D248" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E248"/>
       <c r="F248"/>
@@ -31451,7 +31427,7 @@
         <v>281</v>
       </c>
       <c r="B249" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C249" t="n">
         <v>17</v>
@@ -31570,8 +31546,8 @@
       <c r="AQ249" t="b">
         <v>1</v>
       </c>
-      <c r="AR249" t="s">
-        <v>57</v>
+      <c r="AR249" t="n">
+        <v>27</v>
       </c>
       <c r="AS249" t="b">
         <v>1</v>
@@ -31582,7 +31558,7 @@
         <v>282</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C250" t="n">
         <v>18</v>
@@ -31711,7 +31687,7 @@
         <v>283</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C251" t="n">
         <v>17</v>
@@ -31826,8 +31802,8 @@
       <c r="AQ251" t="b">
         <v>1</v>
       </c>
-      <c r="AR251" t="s">
-        <v>51</v>
+      <c r="AR251" t="n">
+        <v>15</v>
       </c>
       <c r="AS251" t="b">
         <v>1</v>
@@ -31838,7 +31814,7 @@
         <v>284</v>
       </c>
       <c r="B252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C252" t="n">
         <v>16</v>
@@ -31951,7 +31927,7 @@
         <v>285</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C253" t="n">
         <v>18</v>
@@ -32070,8 +32046,8 @@
       <c r="AQ253" t="b">
         <v>0</v>
       </c>
-      <c r="AR253" t="s">
-        <v>53</v>
+      <c r="AR253" t="n">
+        <v>21</v>
       </c>
       <c r="AS253" t="b">
         <v>0</v>
@@ -32195,7 +32171,7 @@
         <v>287</v>
       </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C255" t="n">
         <v>19</v>
@@ -32320,8 +32296,8 @@
       <c r="AQ255" t="b">
         <v>1</v>
       </c>
-      <c r="AR255" t="s">
-        <v>51</v>
+      <c r="AR255" t="n">
+        <v>15</v>
       </c>
       <c r="AS255" t="b">
         <v>1</v>
@@ -32457,8 +32433,8 @@
       <c r="AQ256" t="b">
         <v>1</v>
       </c>
-      <c r="AR256" t="s">
-        <v>49</v>
+      <c r="AR256" t="n">
+        <v>3</v>
       </c>
       <c r="AS256" t="b">
         <v>1</v>
@@ -32469,7 +32445,7 @@
         <v>289</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C257" t="n">
         <v>18</v>
@@ -32582,7 +32558,7 @@
         <v>290</v>
       </c>
       <c r="B258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C258" t="n">
         <v>16</v>
@@ -32782,7 +32758,7 @@
         <v>292</v>
       </c>
       <c r="B260" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C260" t="n">
         <v>16</v>
@@ -33020,7 +32996,7 @@
         <v>294</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C262" t="n">
         <v>19</v>
@@ -33149,7 +33125,7 @@
         <v>295</v>
       </c>
       <c r="B263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C263" t="n">
         <v>18</v>
@@ -33278,7 +33254,7 @@
         <v>296</v>
       </c>
       <c r="B264" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C264" t="n">
         <v>16</v>
@@ -33403,8 +33379,8 @@
       <c r="AQ264" t="b">
         <v>1</v>
       </c>
-      <c r="AR264" t="s">
-        <v>57</v>
+      <c r="AR264" t="n">
+        <v>27</v>
       </c>
       <c r="AS264" t="b">
         <v>1</v>
@@ -33415,7 +33391,7 @@
         <v>297</v>
       </c>
       <c r="B265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C265" t="n">
         <v>15</v>
@@ -33540,8 +33516,8 @@
       <c r="AQ265" t="b">
         <v>1</v>
       </c>
-      <c r="AR265" t="s">
-        <v>51</v>
+      <c r="AR265" t="n">
+        <v>15</v>
       </c>
       <c r="AS265" t="b">
         <v>1</v>
@@ -33677,8 +33653,8 @@
       <c r="AQ266" t="b">
         <v>1</v>
       </c>
-      <c r="AR266" t="s">
-        <v>51</v>
+      <c r="AR266" t="n">
+        <v>15</v>
       </c>
       <c r="AS266" t="b">
         <v>1</v>
@@ -33689,7 +33665,7 @@
         <v>299</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C267" t="n">
         <v>15</v>
@@ -33814,8 +33790,8 @@
       <c r="AQ267" t="b">
         <v>1</v>
       </c>
-      <c r="AR267" t="s">
-        <v>53</v>
+      <c r="AR267" t="n">
+        <v>21</v>
       </c>
       <c r="AS267" t="b">
         <v>1</v>
@@ -33826,7 +33802,7 @@
         <v>300</v>
       </c>
       <c r="B268" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C268" t="n">
         <v>18</v>
@@ -33951,8 +33927,8 @@
       <c r="AQ268" t="b">
         <v>1</v>
       </c>
-      <c r="AR268" t="s">
-        <v>53</v>
+      <c r="AR268" t="n">
+        <v>21</v>
       </c>
       <c r="AS268" t="b">
         <v>1</v>
@@ -34060,7 +34036,7 @@
         <v>302</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C270" t="n">
         <v>19</v>
@@ -34185,8 +34161,8 @@
       <c r="AQ270" t="b">
         <v>1</v>
       </c>
-      <c r="AR270" t="s">
-        <v>53</v>
+      <c r="AR270" t="n">
+        <v>21</v>
       </c>
       <c r="AS270" t="b">
         <v>1</v>
@@ -34197,7 +34173,7 @@
         <v>303</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C271" t="n">
         <v>17</v>
@@ -34320,8 +34296,8 @@
       <c r="AQ271" t="b">
         <v>1</v>
       </c>
-      <c r="AR271" t="s">
-        <v>53</v>
+      <c r="AR271" t="n">
+        <v>21</v>
       </c>
       <c r="AS271" t="b">
         <v>1</v>
@@ -34332,7 +34308,7 @@
         <v>304</v>
       </c>
       <c r="B272" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C272" t="n">
         <v>17</v>
@@ -34459,7 +34435,7 @@
         <v>305</v>
       </c>
       <c r="B273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C273" t="n">
         <v>18</v>
@@ -34570,8 +34546,8 @@
       <c r="AQ273" t="b">
         <v>1</v>
       </c>
-      <c r="AR273" t="s">
-        <v>59</v>
+      <c r="AR273" t="n">
+        <v>9</v>
       </c>
       <c r="AS273" t="b">
         <v>1</v>
@@ -34701,8 +34677,8 @@
       <c r="AQ274" t="b">
         <v>1</v>
       </c>
-      <c r="AR274" t="s">
-        <v>49</v>
+      <c r="AR274" t="n">
+        <v>3</v>
       </c>
       <c r="AS274" t="b">
         <v>1</v>
@@ -34838,8 +34814,8 @@
       <c r="AQ275" t="b">
         <v>1</v>
       </c>
-      <c r="AR275" t="s">
-        <v>53</v>
+      <c r="AR275" t="n">
+        <v>21</v>
       </c>
       <c r="AS275" t="b">
         <v>1</v>
@@ -34850,7 +34826,7 @@
         <v>310</v>
       </c>
       <c r="B276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C276" t="n">
         <v>16</v>
@@ -34971,8 +34947,8 @@
       <c r="AQ276" t="b">
         <v>1</v>
       </c>
-      <c r="AR276" t="s">
-        <v>51</v>
+      <c r="AR276" t="n">
+        <v>15</v>
       </c>
       <c r="AS276" t="b">
         <v>1</v>
@@ -34983,7 +34959,7 @@
         <v>311</v>
       </c>
       <c r="B277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C277" t="n">
         <v>18</v>
@@ -35348,7 +35324,7 @@
         <v>314</v>
       </c>
       <c r="B280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C280" t="n">
         <v>17</v>
@@ -35586,8 +35562,8 @@
       <c r="AQ281" t="b">
         <v>1</v>
       </c>
-      <c r="AR281" t="s">
-        <v>51</v>
+      <c r="AR281" t="n">
+        <v>15</v>
       </c>
       <c r="AS281" t="b">
         <v>1</v>
@@ -35711,7 +35687,7 @@
         <v>318</v>
       </c>
       <c r="B283" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C283" t="n">
         <v>17</v>
@@ -35957,8 +35933,8 @@
       <c r="AQ284" t="b">
         <v>1</v>
       </c>
-      <c r="AR284" t="s">
-        <v>51</v>
+      <c r="AR284" t="n">
+        <v>15</v>
       </c>
       <c r="AS284" t="b">
         <v>1</v>
@@ -36090,8 +36066,8 @@
       <c r="AQ285" t="b">
         <v>1</v>
       </c>
-      <c r="AR285" t="s">
-        <v>51</v>
+      <c r="AR285" t="n">
+        <v>15</v>
       </c>
       <c r="AS285" t="b">
         <v>1</v>
@@ -36219,8 +36195,8 @@
       <c r="AQ286" t="b">
         <v>1</v>
       </c>
-      <c r="AR286" t="s">
-        <v>49</v>
+      <c r="AR286" t="n">
+        <v>3</v>
       </c>
       <c r="AS286" t="b">
         <v>1</v>
@@ -36354,8 +36330,8 @@
       <c r="AQ287" t="b">
         <v>1</v>
       </c>
-      <c r="AR287" t="s">
-        <v>53</v>
+      <c r="AR287" t="n">
+        <v>21</v>
       </c>
       <c r="AS287" t="b">
         <v>1</v>
@@ -36491,8 +36467,8 @@
       <c r="AQ288" t="b">
         <v>1</v>
       </c>
-      <c r="AR288" t="s">
-        <v>51</v>
+      <c r="AR288" t="n">
+        <v>15</v>
       </c>
       <c r="AS288" t="b">
         <v>1</v>
@@ -36626,8 +36602,8 @@
       <c r="AQ289" t="b">
         <v>1</v>
       </c>
-      <c r="AR289" t="s">
-        <v>51</v>
+      <c r="AR289" t="n">
+        <v>15</v>
       </c>
       <c r="AS289" t="b">
         <v>1</v>
@@ -36874,8 +36850,8 @@
       <c r="AQ291" t="b">
         <v>1</v>
       </c>
-      <c r="AR291" t="s">
-        <v>53</v>
+      <c r="AR291" t="n">
+        <v>21</v>
       </c>
       <c r="AS291" t="b">
         <v>1</v>
@@ -36993,8 +36969,8 @@
       <c r="AQ292" t="b">
         <v>1</v>
       </c>
-      <c r="AR292" t="s">
-        <v>51</v>
+      <c r="AR292" t="n">
+        <v>15</v>
       </c>
       <c r="AS292" t="b">
         <v>1</v>
@@ -37005,7 +36981,7 @@
         <v>332</v>
       </c>
       <c r="B293" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C293" t="n">
         <v>19</v>
@@ -37128,8 +37104,8 @@
       <c r="AQ293" t="b">
         <v>1</v>
       </c>
-      <c r="AR293" t="s">
-        <v>51</v>
+      <c r="AR293" t="n">
+        <v>15</v>
       </c>
       <c r="AS293" t="b">
         <v>1</v>
@@ -37261,8 +37237,8 @@
       <c r="AQ294" t="b">
         <v>1</v>
       </c>
-      <c r="AR294" t="s">
-        <v>53</v>
+      <c r="AR294" t="n">
+        <v>21</v>
       </c>
       <c r="AS294" t="b">
         <v>1</v>
@@ -37279,7 +37255,7 @@
         <v>65</v>
       </c>
       <c r="D295" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E295"/>
       <c r="F295" t="b">
@@ -37388,8 +37364,8 @@
       <c r="AQ295" t="b">
         <v>1</v>
       </c>
-      <c r="AR295" t="s">
-        <v>51</v>
+      <c r="AR295" t="n">
+        <v>15</v>
       </c>
       <c r="AS295" t="b">
         <v>1</v>
@@ -37523,8 +37499,8 @@
       <c r="AQ296" t="b">
         <v>1</v>
       </c>
-      <c r="AR296" t="s">
-        <v>51</v>
+      <c r="AR296" t="n">
+        <v>15</v>
       </c>
       <c r="AS296" t="b">
         <v>1</v>
@@ -37660,8 +37636,8 @@
       <c r="AQ297" t="b">
         <v>1</v>
       </c>
-      <c r="AR297" t="s">
-        <v>57</v>
+      <c r="AR297" t="n">
+        <v>27</v>
       </c>
       <c r="AS297" t="b">
         <v>1</v>
@@ -37672,7 +37648,7 @@
         <v>338</v>
       </c>
       <c r="B298" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C298" t="n">
         <v>18</v>
@@ -37795,7 +37771,7 @@
         <v>339</v>
       </c>
       <c r="B299" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C299" t="n">
         <v>17</v>
@@ -37908,7 +37884,7 @@
         <v>340</v>
       </c>
       <c r="B300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C300" t="n">
         <v>18</v>
@@ -38021,8 +37997,8 @@
       <c r="AQ300" t="b">
         <v>1</v>
       </c>
-      <c r="AR300" t="s">
-        <v>51</v>
+      <c r="AR300" t="n">
+        <v>15</v>
       </c>
       <c r="AS300" t="b">
         <v>1</v>
@@ -38158,8 +38134,8 @@
       <c r="AQ301" t="b">
         <v>1</v>
       </c>
-      <c r="AR301" t="s">
-        <v>57</v>
+      <c r="AR301" t="n">
+        <v>27</v>
       </c>
       <c r="AS301" t="b">
         <v>1</v>
@@ -38293,8 +38269,8 @@
       <c r="AQ302" t="b">
         <v>1</v>
       </c>
-      <c r="AR302" t="s">
-        <v>57</v>
+      <c r="AR302" t="n">
+        <v>27</v>
       </c>
       <c r="AS302" t="b">
         <v>1</v>
@@ -38305,13 +38281,13 @@
         <v>343</v>
       </c>
       <c r="B303" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C303" t="n">
         <v>32</v>
       </c>
       <c r="D303" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E303"/>
       <c r="F303"/>
@@ -38416,7 +38392,7 @@
         <v>344</v>
       </c>
       <c r="B304" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C304" t="n">
         <v>18</v>
@@ -38529,8 +38505,8 @@
       <c r="AQ304" t="b">
         <v>1</v>
       </c>
-      <c r="AR304" t="s">
-        <v>53</v>
+      <c r="AR304" t="n">
+        <v>21</v>
       </c>
       <c r="AS304" t="b">
         <v>1</v>
@@ -38660,8 +38636,8 @@
       <c r="AQ305" t="b">
         <v>1</v>
       </c>
-      <c r="AR305" t="s">
-        <v>59</v>
+      <c r="AR305" t="n">
+        <v>9</v>
       </c>
       <c r="AS305" t="b">
         <v>1</v>
@@ -38771,8 +38747,8 @@
       <c r="AQ306" t="b">
         <v>1</v>
       </c>
-      <c r="AR306" t="s">
-        <v>59</v>
+      <c r="AR306" t="n">
+        <v>9</v>
       </c>
       <c r="AS306" t="b">
         <v>1</v>
@@ -38908,8 +38884,8 @@
       <c r="AQ307" t="b">
         <v>1</v>
       </c>
-      <c r="AR307" t="s">
-        <v>51</v>
+      <c r="AR307" t="n">
+        <v>15</v>
       </c>
       <c r="AS307" t="b">
         <v>1</v>
@@ -38920,7 +38896,7 @@
         <v>348</v>
       </c>
       <c r="B308" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C308" t="n">
         <v>18</v>
@@ -39045,8 +39021,8 @@
       <c r="AQ308" t="b">
         <v>1</v>
       </c>
-      <c r="AR308" t="s">
-        <v>51</v>
+      <c r="AR308" t="n">
+        <v>15</v>
       </c>
       <c r="AS308" t="b">
         <v>1</v>
@@ -39057,7 +39033,7 @@
         <v>349</v>
       </c>
       <c r="B309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C309" t="n">
         <v>18</v>
@@ -39158,8 +39134,8 @@
       <c r="AQ309" t="b">
         <v>1</v>
       </c>
-      <c r="AR309" t="s">
-        <v>51</v>
+      <c r="AR309" t="n">
+        <v>15</v>
       </c>
       <c r="AS309" t="b">
         <v>1</v>
@@ -39170,7 +39146,7 @@
         <v>352</v>
       </c>
       <c r="B310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C310" t="n">
         <v>16</v>
@@ -39295,8 +39271,8 @@
       <c r="AQ310" t="b">
         <v>1</v>
       </c>
-      <c r="AR310" t="s">
-        <v>51</v>
+      <c r="AR310" t="n">
+        <v>15</v>
       </c>
       <c r="AS310" t="b">
         <v>1</v>
@@ -39307,7 +39283,7 @@
         <v>353</v>
       </c>
       <c r="B311" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C311" t="n">
         <v>19</v>
@@ -39428,8 +39404,8 @@
       <c r="AQ311" t="b">
         <v>1</v>
       </c>
-      <c r="AR311" t="s">
-        <v>53</v>
+      <c r="AR311" t="n">
+        <v>21</v>
       </c>
       <c r="AS311" t="b">
         <v>1</v>
@@ -39440,7 +39416,7 @@
         <v>354</v>
       </c>
       <c r="B312" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C312" t="n">
         <v>17</v>
@@ -39569,7 +39545,7 @@
         <v>356</v>
       </c>
       <c r="B313" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C313" t="n">
         <v>19</v>
@@ -39692,8 +39668,8 @@
       <c r="AQ313" t="b">
         <v>1</v>
       </c>
-      <c r="AR313" t="s">
-        <v>51</v>
+      <c r="AR313" t="n">
+        <v>15</v>
       </c>
       <c r="AS313" t="b">
         <v>1</v>
@@ -39704,7 +39680,7 @@
         <v>357</v>
       </c>
       <c r="B314" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C314" t="n">
         <v>16</v>
@@ -39823,8 +39799,8 @@
       <c r="AQ314" t="b">
         <v>1</v>
       </c>
-      <c r="AR314" t="s">
-        <v>51</v>
+      <c r="AR314" t="n">
+        <v>15</v>
       </c>
       <c r="AS314" t="b">
         <v>1</v>
@@ -39835,7 +39811,7 @@
         <v>358</v>
       </c>
       <c r="B315" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C315" t="n">
         <v>18</v>
@@ -39964,7 +39940,7 @@
         <v>359</v>
       </c>
       <c r="B316" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C316" t="n">
         <v>16</v>
@@ -40079,8 +40055,8 @@
       <c r="AQ316" t="b">
         <v>1</v>
       </c>
-      <c r="AR316" t="s">
-        <v>59</v>
+      <c r="AR316" t="n">
+        <v>9</v>
       </c>
       <c r="AS316" t="b">
         <v>1</v>
@@ -40091,7 +40067,7 @@
         <v>360</v>
       </c>
       <c r="B317" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C317" t="n">
         <v>16</v>
@@ -40321,8 +40297,8 @@
       <c r="AQ318" t="b">
         <v>1</v>
       </c>
-      <c r="AR318" t="s">
-        <v>53</v>
+      <c r="AR318" t="n">
+        <v>21</v>
       </c>
       <c r="AS318" t="b">
         <v>1</v>
@@ -40446,7 +40422,7 @@
         <v>364</v>
       </c>
       <c r="B320" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C320" t="n">
         <v>17</v>
@@ -40555,7 +40531,7 @@
         <v>365</v>
       </c>
       <c r="B321" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C321" t="n">
         <v>16</v>
@@ -40666,8 +40642,8 @@
       <c r="AQ321" t="b">
         <v>1</v>
       </c>
-      <c r="AR321" t="s">
-        <v>51</v>
+      <c r="AR321" t="n">
+        <v>15</v>
       </c>
       <c r="AS321" t="b">
         <v>1</v>
@@ -40678,7 +40654,7 @@
         <v>366</v>
       </c>
       <c r="B322" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C322" t="n">
         <v>17</v>
@@ -40803,8 +40779,8 @@
       <c r="AQ322" t="b">
         <v>1</v>
       </c>
-      <c r="AR322" t="s">
-        <v>53</v>
+      <c r="AR322" t="n">
+        <v>21</v>
       </c>
       <c r="AS322" t="b">
         <v>1</v>
@@ -40815,7 +40791,7 @@
         <v>367</v>
       </c>
       <c r="B323" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C323" t="n">
         <v>15</v>
@@ -40940,8 +40916,8 @@
       <c r="AQ323" t="b">
         <v>1</v>
       </c>
-      <c r="AR323" t="s">
-        <v>58</v>
+      <c r="AR323" t="n">
+        <v>39</v>
       </c>
       <c r="AS323" t="b">
         <v>1</v>
@@ -40952,7 +40928,7 @@
         <v>368</v>
       </c>
       <c r="B324" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C324" t="n">
         <v>16</v>
@@ -41077,8 +41053,8 @@
       <c r="AQ324" t="b">
         <v>1</v>
       </c>
-      <c r="AR324" t="s">
-        <v>51</v>
+      <c r="AR324" t="n">
+        <v>15</v>
       </c>
       <c r="AS324" t="b">
         <v>1</v>
@@ -41198,7 +41174,7 @@
         <v>372</v>
       </c>
       <c r="B326" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C326" t="n">
         <v>19</v>
@@ -41317,7 +41293,7 @@
         <v>373</v>
       </c>
       <c r="B327" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C327" t="n">
         <v>18</v>
@@ -41442,8 +41418,8 @@
       <c r="AQ327" t="b">
         <v>1</v>
       </c>
-      <c r="AR327" t="s">
-        <v>53</v>
+      <c r="AR327" t="n">
+        <v>21</v>
       </c>
       <c r="AS327" t="b">
         <v>1</v>
@@ -41577,8 +41553,8 @@
       <c r="AQ328" t="b">
         <v>1</v>
       </c>
-      <c r="AR328" t="s">
-        <v>51</v>
+      <c r="AR328" t="n">
+        <v>15</v>
       </c>
       <c r="AS328" t="b">
         <v>1</v>
@@ -41589,7 +41565,7 @@
         <v>375</v>
       </c>
       <c r="B329" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C329" t="n">
         <v>17</v>
@@ -41714,8 +41690,8 @@
       <c r="AQ329" t="b">
         <v>1</v>
       </c>
-      <c r="AR329" t="s">
-        <v>51</v>
+      <c r="AR329" t="n">
+        <v>15</v>
       </c>
       <c r="AS329" t="b">
         <v>1</v>
@@ -41726,7 +41702,7 @@
         <v>376</v>
       </c>
       <c r="B330" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C330" t="n">
         <v>17</v>
@@ -41837,8 +41813,8 @@
       <c r="AQ330" t="b">
         <v>1</v>
       </c>
-      <c r="AR330" t="s">
-        <v>51</v>
+      <c r="AR330" t="n">
+        <v>15</v>
       </c>
       <c r="AS330" t="b">
         <v>1</v>
@@ -41962,7 +41938,7 @@
         <v>378</v>
       </c>
       <c r="B332" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C332" t="n">
         <v>17</v>
@@ -42075,8 +42051,8 @@
       <c r="AQ332" t="b">
         <v>1</v>
       </c>
-      <c r="AR332" t="s">
-        <v>53</v>
+      <c r="AR332" t="n">
+        <v>21</v>
       </c>
       <c r="AS332" t="b">
         <v>1</v>
@@ -42087,7 +42063,7 @@
         <v>379</v>
       </c>
       <c r="B333" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C333" t="n">
         <v>18</v>
@@ -42212,8 +42188,8 @@
       <c r="AQ333" t="b">
         <v>1</v>
       </c>
-      <c r="AR333" t="s">
-        <v>53</v>
+      <c r="AR333" t="n">
+        <v>21</v>
       </c>
       <c r="AS333" t="b">
         <v>1</v>
@@ -42224,7 +42200,7 @@
         <v>381</v>
       </c>
       <c r="B334" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C334" t="n">
         <v>16</v>
@@ -42329,7 +42305,7 @@
         <v>382</v>
       </c>
       <c r="B335" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C335" t="n">
         <v>18</v>
@@ -42442,7 +42418,7 @@
         <v>383</v>
       </c>
       <c r="B336" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C336" t="n">
         <v>18</v>
@@ -42553,8 +42529,8 @@
       <c r="AQ336" t="b">
         <v>1</v>
       </c>
-      <c r="AR336" t="s">
-        <v>51</v>
+      <c r="AR336" t="n">
+        <v>15</v>
       </c>
       <c r="AS336" t="b">
         <v>1</v>
@@ -42678,7 +42654,7 @@
         <v>386</v>
       </c>
       <c r="B338" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C338" t="n">
         <v>16</v>
@@ -42779,8 +42755,8 @@
       <c r="AQ338" t="b">
         <v>1</v>
       </c>
-      <c r="AR338" t="s">
-        <v>51</v>
+      <c r="AR338" t="n">
+        <v>15</v>
       </c>
       <c r="AS338" t="b">
         <v>1</v>
@@ -42791,7 +42767,7 @@
         <v>387</v>
       </c>
       <c r="B339" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C339" t="n">
         <v>17</v>
@@ -42916,8 +42892,8 @@
       <c r="AQ339" t="b">
         <v>1</v>
       </c>
-      <c r="AR339" t="s">
-        <v>51</v>
+      <c r="AR339" t="n">
+        <v>15</v>
       </c>
       <c r="AS339" t="b">
         <v>1</v>
@@ -43041,7 +43017,7 @@
         <v>389</v>
       </c>
       <c r="B341" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C341" t="n">
         <v>18</v>
@@ -43164,8 +43140,8 @@
       <c r="AQ341" t="b">
         <v>1</v>
       </c>
-      <c r="AR341" t="s">
-        <v>51</v>
+      <c r="AR341" t="n">
+        <v>15</v>
       </c>
       <c r="AS341" t="b">
         <v>1</v>
@@ -43293,8 +43269,8 @@
       <c r="AQ342" t="b">
         <v>1</v>
       </c>
-      <c r="AR342" t="s">
-        <v>51</v>
+      <c r="AR342" t="n">
+        <v>15</v>
       </c>
       <c r="AS342" t="b">
         <v>1</v>
@@ -43430,8 +43406,8 @@
       <c r="AQ343" t="b">
         <v>1</v>
       </c>
-      <c r="AR343" t="s">
-        <v>53</v>
+      <c r="AR343" t="n">
+        <v>21</v>
       </c>
       <c r="AS343" t="b">
         <v>1</v>
@@ -43442,7 +43418,7 @@
         <v>394</v>
       </c>
       <c r="B344" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C344" t="n">
         <v>17</v>
@@ -43561,8 +43537,8 @@
       <c r="AQ344" t="b">
         <v>1</v>
       </c>
-      <c r="AR344" t="s">
-        <v>51</v>
+      <c r="AR344" t="n">
+        <v>15</v>
       </c>
       <c r="AS344" t="b">
         <v>1</v>
@@ -43686,8 +43662,8 @@
       <c r="AQ345" t="b">
         <v>1</v>
       </c>
-      <c r="AR345" t="s">
-        <v>51</v>
+      <c r="AR345" t="n">
+        <v>15</v>
       </c>
       <c r="AS345" t="b">
         <v>1</v>
@@ -43815,7 +43791,7 @@
         <v>34</v>
       </c>
       <c r="D347" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E347"/>
       <c r="F347" t="b">
@@ -44045,7 +44021,7 @@
         <v>400</v>
       </c>
       <c r="B349" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C349" t="n">
         <v>17</v>
@@ -44275,8 +44251,8 @@
       <c r="AQ350" t="b">
         <v>1</v>
       </c>
-      <c r="AR350" t="s">
-        <v>49</v>
+      <c r="AR350" t="n">
+        <v>3</v>
       </c>
       <c r="AS350" t="b">
         <v>1</v>
@@ -44410,8 +44386,8 @@
       <c r="AQ351" t="b">
         <v>1</v>
       </c>
-      <c r="AR351" t="s">
-        <v>51</v>
+      <c r="AR351" t="n">
+        <v>15</v>
       </c>
       <c r="AS351" t="b">
         <v>1</v>
@@ -44422,7 +44398,7 @@
         <v>403</v>
       </c>
       <c r="B352" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C352" t="n">
         <v>17</v>
@@ -44650,8 +44626,8 @@
       <c r="AQ353" t="b">
         <v>1</v>
       </c>
-      <c r="AR353" t="s">
-        <v>59</v>
+      <c r="AR353" t="n">
+        <v>9</v>
       </c>
       <c r="AS353" t="b">
         <v>1</v>
@@ -44668,7 +44644,7 @@
         <v>31</v>
       </c>
       <c r="D354" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E354"/>
       <c r="F354"/>
@@ -44878,7 +44854,7 @@
         <v>408</v>
       </c>
       <c r="B356" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C356" t="n">
         <v>17</v>
@@ -44991,7 +44967,7 @@
         <v>409</v>
       </c>
       <c r="B357" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C357" t="n">
         <v>16</v>
@@ -45094,8 +45070,8 @@
       <c r="AQ357" t="b">
         <v>1</v>
       </c>
-      <c r="AR357" t="s">
-        <v>53</v>
+      <c r="AR357" t="n">
+        <v>21</v>
       </c>
       <c r="AS357" t="b">
         <v>1</v>
@@ -45106,7 +45082,7 @@
         <v>410</v>
       </c>
       <c r="B358" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C358" t="n">
         <v>16</v>
@@ -45314,8 +45290,8 @@
       <c r="AQ359" t="b">
         <v>1</v>
       </c>
-      <c r="AR359" t="s">
-        <v>54</v>
+      <c r="AR359" t="n">
+        <v>45</v>
       </c>
       <c r="AS359" t="b">
         <v>1</v>
@@ -45449,8 +45425,8 @@
       <c r="AQ360" t="b">
         <v>1</v>
       </c>
-      <c r="AR360" t="s">
-        <v>51</v>
+      <c r="AR360" t="n">
+        <v>15</v>
       </c>
       <c r="AS360" t="b">
         <v>1</v>
@@ -45461,7 +45437,7 @@
         <v>413</v>
       </c>
       <c r="B361" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C361" t="n">
         <v>16</v>
@@ -45574,7 +45550,7 @@
         <v>414</v>
       </c>
       <c r="B362" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C362" t="n">
         <v>18</v>
@@ -45687,8 +45663,8 @@
       <c r="AQ362" t="b">
         <v>1</v>
       </c>
-      <c r="AR362" t="s">
-        <v>51</v>
+      <c r="AR362" t="n">
+        <v>15</v>
       </c>
       <c r="AS362" t="b">
         <v>1</v>
@@ -45699,7 +45675,7 @@
         <v>415</v>
       </c>
       <c r="B363" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C363" t="n">
         <v>18</v>
@@ -45810,8 +45786,8 @@
       <c r="AQ363" t="b">
         <v>1</v>
       </c>
-      <c r="AR363" t="s">
-        <v>51</v>
+      <c r="AR363" t="n">
+        <v>15</v>
       </c>
       <c r="AS363" t="b">
         <v>1</v>
@@ -45822,13 +45798,13 @@
         <v>417</v>
       </c>
       <c r="B364" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C364" t="n">
         <v>29</v>
       </c>
       <c r="D364" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E364"/>
       <c r="F364"/>
@@ -45933,8 +45909,8 @@
       <c r="AQ364" t="b">
         <v>1</v>
       </c>
-      <c r="AR364" t="s">
-        <v>51</v>
+      <c r="AR364" t="n">
+        <v>15</v>
       </c>
       <c r="AS364" t="b">
         <v>1</v>
@@ -46058,7 +46034,7 @@
         <v>421</v>
       </c>
       <c r="B366" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C366" t="n">
         <v>16</v>
@@ -46177,8 +46153,8 @@
       <c r="AQ366" t="b">
         <v>1</v>
       </c>
-      <c r="AR366" t="s">
-        <v>59</v>
+      <c r="AR366" t="n">
+        <v>9</v>
       </c>
       <c r="AS366" t="b">
         <v>1</v>
@@ -46534,8 +46510,8 @@
       <c r="AQ369" t="b">
         <v>1</v>
       </c>
-      <c r="AR369" t="s">
-        <v>57</v>
+      <c r="AR369" t="n">
+        <v>27</v>
       </c>
       <c r="AS369" t="b">
         <v>1</v>
@@ -46546,7 +46522,7 @@
         <v>425</v>
       </c>
       <c r="B370" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C370" t="n">
         <v>18</v>
@@ -46780,8 +46756,8 @@
       <c r="AQ371" t="b">
         <v>1</v>
       </c>
-      <c r="AR371" t="s">
-        <v>49</v>
+      <c r="AR371" t="n">
+        <v>3</v>
       </c>
       <c r="AS371" t="b">
         <v>1</v>
@@ -46909,8 +46885,8 @@
       <c r="AQ372" t="b">
         <v>1</v>
       </c>
-      <c r="AR372" t="s">
-        <v>51</v>
+      <c r="AR372" t="n">
+        <v>15</v>
       </c>
       <c r="AS372" t="b">
         <v>1</v>
@@ -46921,7 +46897,7 @@
         <v>429</v>
       </c>
       <c r="B373" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C373" t="n">
         <v>15</v>
@@ -47046,8 +47022,8 @@
       <c r="AQ373" t="b">
         <v>1</v>
       </c>
-      <c r="AR373" t="s">
-        <v>51</v>
+      <c r="AR373" t="n">
+        <v>15</v>
       </c>
       <c r="AS373" t="b">
         <v>1</v>
@@ -47058,7 +47034,7 @@
         <v>430</v>
       </c>
       <c r="B374" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C374" t="n">
         <v>16</v>
@@ -47171,8 +47147,8 @@
       <c r="AQ374" t="b">
         <v>1</v>
       </c>
-      <c r="AR374" t="s">
-        <v>57</v>
+      <c r="AR374" t="n">
+        <v>27</v>
       </c>
       <c r="AS374" t="b">
         <v>1</v>
@@ -47183,7 +47159,7 @@
         <v>432</v>
       </c>
       <c r="B375" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C375" t="n">
         <v>18</v>
@@ -47296,8 +47272,8 @@
       <c r="AQ375" t="b">
         <v>1</v>
       </c>
-      <c r="AR375" t="s">
-        <v>57</v>
+      <c r="AR375" t="n">
+        <v>27</v>
       </c>
       <c r="AS375" t="b">
         <v>1</v>
@@ -47308,7 +47284,7 @@
         <v>433</v>
       </c>
       <c r="B376" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C376" t="n">
         <v>18</v>
@@ -47433,8 +47409,8 @@
       <c r="AQ376" t="b">
         <v>1</v>
       </c>
-      <c r="AR376" t="s">
-        <v>57</v>
+      <c r="AR376" t="n">
+        <v>27</v>
       </c>
       <c r="AS376" t="b">
         <v>1</v>
@@ -47556,8 +47532,8 @@
       <c r="AQ377" t="b">
         <v>1</v>
       </c>
-      <c r="AR377" t="s">
-        <v>51</v>
+      <c r="AR377" t="n">
+        <v>15</v>
       </c>
       <c r="AS377" t="b">
         <v>1</v>
@@ -47568,7 +47544,7 @@
         <v>435</v>
       </c>
       <c r="B378" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C378" t="n">
         <v>19</v>
